--- a/suppxls/Scen_Par-Storage_TRA.xlsx
+++ b/suppxls/Scen_Par-Storage_TRA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749AEDC-6C97-47A9-9BFF-202CC97CFF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFDAB7D-1694-4254-AD7C-A18C76B601FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="12735" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport storage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LimType</t>
   </si>
@@ -67,18 +67,6 @@
     <t>V2G</t>
   </si>
   <si>
-    <t>*SIFT*</t>
-  </si>
-  <si>
-    <t>PSET_CO</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>CSET_CN</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -97,7 +85,10 @@
     <t>V1G</t>
   </si>
   <si>
-    <t>START</t>
+    <t>*V2G</t>
+  </si>
+  <si>
+    <t>*SIFTELC1</t>
   </si>
 </sst>
 </file>
@@ -204,7 +195,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,7 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -531,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0780C00F-4708-452C-A1D7-80FEB354B029}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,52 +538,50 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="str">
         <f>VLOOKUP(A2,$B$7:$E$20,C$4)</f>
         <v>V2G</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -611,65 +599,46 @@
         <v>5</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H8" t="str">
-        <f>IF($C$5="V2G","\I:","STGOUT_BND")</f>
-        <v>\I:</v>
+        <f>IF($C$5="Ref","\I:","NCAP_BND")</f>
+        <v>NCAP_BND</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="str">
-        <f>K8</f>
-        <v>ELC</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f>VLOOKUP(C5,$C$7:$D$9,2,FALSE)</f>
+        <v>*V2G</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <f>IF(C5="Ref",2150,2025)</f>
-        <v>2025</v>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
